--- a/output/meral/2022/sheets/year_2022.xlsx
+++ b/output/meral/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43.68709677419355</v>
+        <v>48.43345270518114</v>
       </c>
       <c r="C2" t="n">
-        <v>21.16774193548387</v>
+        <v>44.79922639090639</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44.64285714285713</v>
+        <v>48.92026792280876</v>
       </c>
       <c r="C3" t="n">
-        <v>18.29285714285714</v>
+        <v>42.75491847913923</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.56774193548387</v>
+        <v>50.93426266531079</v>
       </c>
       <c r="C4" t="n">
-        <v>19.0516129032258</v>
+        <v>47.24997361426187</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30.77666666666667</v>
+        <v>46.13798647561221</v>
       </c>
       <c r="C5" t="n">
-        <v>19.27999999999999</v>
+        <v>40.99025725205373</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44.12258064516129</v>
+        <v>47.74558693348869</v>
       </c>
       <c r="C6" t="n">
-        <v>25.6258064516129</v>
+        <v>42.13770138627495</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.89666666666667</v>
+        <v>47.89722566608976</v>
       </c>
       <c r="C7" t="n">
-        <v>26.97</v>
+        <v>44.4531202720283</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.93870967741935</v>
+        <v>49.05709837421058</v>
       </c>
       <c r="C8" t="n">
-        <v>30.59354838709677</v>
+        <v>42.89384936927462</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.24516129032258</v>
+        <v>48.04990550109987</v>
       </c>
       <c r="C9" t="n">
-        <v>10.79032258064516</v>
+        <v>42.60057413213719</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>35.03</v>
+        <v>48.72447518592609</v>
       </c>
       <c r="C10" t="n">
-        <v>22.41</v>
+        <v>45.70694279449509</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>52.04193548387097</v>
+        <v>59.30149166775868</v>
       </c>
       <c r="C11" t="n">
-        <v>33.01935483870968</v>
+        <v>51.9278903891493</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>35.37</v>
+        <v>48.74287721552336</v>
       </c>
       <c r="C12" t="n">
-        <v>14.77333333333334</v>
+        <v>38.36490297551868</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40.79677419354837</v>
+        <v>51.50401413830557</v>
       </c>
       <c r="C13" t="n">
-        <v>28.14193548387097</v>
+        <v>47.40738545737547</v>
       </c>
     </row>
   </sheetData>
